--- a/P4_01_analyse.xlsx
+++ b/P4_01_analyse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmca\Desktop\open c\P4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmca\Desktop\open c\P4_cariot_emma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{747C2073-45D8-4D8F-8DDE-EABEEED1AE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE248F1-F850-4B76-86DC-F2B923807B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>Catégorie</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Mêmes mots-clef</t>
   </si>
   <si>
-    <t>Couleur de la police</t>
-  </si>
-  <si>
     <t>Police orange sur image orange</t>
   </si>
   <si>
@@ -211,6 +208,33 @@
   </si>
   <si>
     <t>https://www.ideveloppement.fr/blog/comment-optimiser-ses-images-pour-le-web-en-3-etapes/</t>
+  </si>
+  <si>
+    <t>contraste</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Pas de focus sur éléments cliquables</t>
+  </si>
+  <si>
+    <t>modifier le css avec :focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier CSS </t>
+  </si>
+  <si>
+    <t>div keywords</t>
+  </si>
+  <si>
+    <t>mots clefs ajoutés au dessus de la nav bar</t>
+  </si>
+  <si>
+    <t>ne pas mettre de div inutiles</t>
+  </si>
+  <si>
+    <t>modifier le HTML</t>
   </si>
 </sst>
 </file>
@@ -508,7 +532,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -573,19 +597,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -605,7 +629,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -625,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -642,10 +666,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -665,7 +689,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -685,7 +709,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -705,7 +729,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -713,19 +737,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -733,19 +757,19 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
       <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
         <v>57</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -753,19 +777,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -773,26 +797,60 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="4"/>
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="4"/>
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
